--- a/intents.xlsx
+++ b/intents.xlsx
@@ -20,18 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My name’s Bob.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am Bob.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’m Bob.</t>
   </si>
   <si>
     <t xml:space="preserve">My name is Bob.</t>
@@ -40,25 +31,13 @@
     <t xml:space="preserve">greetings</t>
   </si>
   <si>
-    <t xml:space="preserve">Good afternoon</t>
+    <t xml:space="preserve">Hello bot</t>
   </si>
   <si>
-    <t xml:space="preserve">Good morning.</t>
+    <t xml:space="preserve">Hi</t>
   </si>
   <si>
-    <t xml:space="preserve">What’s up ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hey mate !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello bot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello !</t>
+    <t xml:space="preserve">Hello</t>
   </si>
 </sst>
 </file>
@@ -159,10 +138,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -182,61 +161,26 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
